--- a/_template/llc页面对照表.xlsx
+++ b/_template/llc页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>psd页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,14 +29,45 @@
   </si>
   <si>
     <t>index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-order-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order-list.html</t>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单-show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,10 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,20 +406,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,12 +427,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/_template/llc页面对照表.xlsx
+++ b/_template/llc页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>psd页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,14 +60,38 @@
   </si>
   <si>
     <t>用户中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺首页-开始加载商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺首页-空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index-null.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index-show.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +221,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,20 +432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -435,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -443,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -451,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -459,12 +485,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/_template/llc页面对照表.xlsx
+++ b/_template/llc页面对照表.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
